--- a/CashFlow/LYFT_cashflow.xlsx
+++ b/CashFlow/LYFT_cashflow.xlsx
@@ -302,19 +302,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>44489000.0</v>
+        <v>698000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-9353000.0</v>
+        <v>653000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>81856000.0</v>
+        <v>698819000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>695468000.0</v>
+        <v>768664000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>289702000.0</v>
+        <v>322902000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>313246000.0</v>
